--- a/500all/speech_level/speeches_CHRG-114hhrg20223.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20223.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="430">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Whitfield</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Whitfield. I would like to call this hearing to order.    Of course, today we are having a hearing on the Department of Energy's fiscal year 2017 budget. We are delighted that Secretary Moniz is here with us today to, I guess I will say, defend the budget because we do have some differences of opinion.    But, at this time, I would like to recognize myself 5 minutes for an opening statement. And, Mr. Secretary, we are delighted you are here. And we enjoy working with you even though, as I said, we do have some significant differences on some of the policies.    My concerns about prior years' budgets are repeated in this year's budget. I take serious issue with the nearly 10 percent increase in overall funding level requests. And I personally still question the direction DOE is taking on energy policy. I should note that there are issues that we certainly agree with DOE, at least in principle, and there is much in the agency's Quadrennial Energy Review that I think we all support. We all agree on the need to modernize, and protect the Nation's energy infrastructure and the need to have a well-trained and diversified energy workforce with the skills that energy markets will demand in years to come.    We all recognize the importance of a more integrated North American energy system, and the benefits of engaging in energy diplomacy, and conducting ourselves like the energy superpower really that we have become. We agree on taking steps to improve energy efficiency and accountability, especially in regard to the Federal Government's own use of energy, as well as the functioning of DOE itself. And most of us agree on the agency's commitment to research and development.    But on many areas, and the direction, in which this agency is taking with its energy policy, I personally, respectfully, disagree. Most significantly, this budget continues to reflect the President's priority to treat climate change as the number one issue facing America and is DOE's overriding concern.    One of DOE's stated priorities, in the fiscal year 2017 budget request, is to support ongoing implementation of the President's climate action plan. We see this in the programs that have received proposed budget increases, like the $2.9 billion, for the Office of Energy Efficiency and Renewable Energy, a 40 percent increase. A 63 percent increase for wind energy, a 22 percent increase for corporate support, at the same time, a reduction of nuclear R&amp;D by 23 percent, a reduction in nuclear technology by 20 percent.    And I might add that the administration has chosen to make climate an agency priority without any statutory authority from Congress directing DOE to focus on global warming. As part of the Paris Agreement, a nonbinding agreement, Obama and 19 other countries launched a program known as Mission Innovation in order to accelerate global energy innovation by doubling the amount of our taxpayer dollars in clean energy R&amp;D over the next 5 years. And so the things included in Mission Innovation we have used before, but there is a 21 percent increase in the budget request.    The budget also evidences a misguided perspective on the proper role of Government in energy policy. A cleaner, more advanced and efficient energy system can be achieved through primarily private sector innovation and markets, supported by Government-backed research and development, not a top-down, Government-mandated approach. Yet, almost everywhere in this budget, we see DOE trying to expand its role and impose its own preferences on the private sector. And I might say that I personally take responsibility, I went back and looked at, certainly it is not all up to me, but since 2009, there has been a 35 percent increase in budget requests from DOE.    During that same time, household median income has gone down by 2 percent since the President has been in office. So that reflects really what is happening in Government. We keep getting all these requests for increases. And, yet, the American people, they, their household income actually is decreasing. And I take responsibility for it because here I am, chairman of the Energy and Power Subcommittee, we should be working closer with the appropriators. Because the appropriators seem to just keep following down, giving more money. And, yet, we should be, as a committee, pressing them on what we think. We have as much jurisdiction over energy as certainly the appropriators do. They appropriate the money.    But I personally, this year, am going to try to have more interchange with them, exchange of ideas, dialogue with them to give them our very strong views on where we think the President is wrong on his priorities for DOE. With that, at this time, I would like to recognize the distinguished gentleman from Illinois, Mr. Rush, for a 5-minute opening statement.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400414</t>
   </si>
   <si>
-    <t>Fred Upton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Upton. Thank you, Mr. Chairman. Secretary Moniz, welcome back. Let me first say how much I truly have appreciated your efforts as Secretary to come before this committee and work with us on both sides of the aisle. Never been one to shy away from coming up to the Hill, engaging us, even when we might disagree. I credit you and your staff with the great work that you have done, particularly with the Quadrennial Energy Review, which helped shape our bipartisan approach to energy legislation in this Congress.    While some of the provisions we worked on together were enacted as part of and energy security title in the highway bill, I still am hopeful that similar legislation can and will get through the Senate, perhaps as early as tomorrow, so that we can get a conference negotiation underway.    We look forward, Chairman Murkowski and myself, to working with you on an incredible new era of abundance, as it is important that our policies reflect these 21st century realities. We should be promoting and embracing our resources to keep energy affordable for folks in Michigan and across the country. I will take note that the President's budget takes a slightly different approach, particularly as it relates to the gas tax as it impacts the most vulnerable. However, our abundance on coal, oil, and natural gas, along with nuclear, hydro, and renewables does put us in charge of our energy destiny and makes the future of affordable and reliable energy an achievable one for the country.    The biggest threat to this bright future is no longer OPEC or any other outside menace. It is, instead, the misguided policies that sometimes pick winners and losers. And, unfortunately, we see much of that in this budget. One area in which I am interested in learning more about is the administration's recent commitments to double Government-wide research and development over the next 5 years as part of the Mission Innovation.    Continued breakthroughs in the way that we produce, transmit, and consume energy are needed in order to meet 21st century threats, be it from cyber, severe weather, physical attacks on our infrastructure. Many in the private sector are leaping at the challenge, including Bill Gates, and some of our leading innovators and entrepreneurs as part of the breakthrough coalition. And the recent announcements and financial commitments appear to be very promising. And I look forward to hearing from you on that.    Congress, however, will need more information before responding to the budget requests as to how limited DOE research dollars will work to augment the commitments made by the private sector. In a challenging budget environment, we will need to ensure there is no duplication. And the transparency, competitiveness, and impacts of consumer costs and reliability are front and center and that the technologies and pathways considered are truly resource neutral.    As always, I know you and your staff will continue to be ready to assist us, to work with us. And I look forward to your testimony. And I yield back.</t>
   </si>
   <si>
@@ -76,18 +70,12 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman. I would like to also welcome Secretary Moniz back to the committee this morning. Our Nation faces many challenges as we work to lead the global coalition of countries committed to addressing the threat of climate change. The Department of Energy is at the forefront of these efforts here in the United States. And I commend your achievements as Secretary that are helping to make our country a global leader in combatting climate change.    In December, over 190 countries came together to address the common goal of limiting carbon emissions, a threat to all nations. Accelerating clean energy innovation is essential to achieving the goal of limiting the rise in global temperatures to below 2 degrees Celsius. Thanks in part to your continued leadership, we are now on a pathway to a safer, healthier planet for future generations, while creating an enormous opportunity for economic growth.    The fiscal year 2017 Department of Energy budget proposal requests $32.5 billion for the agency, which represents a $2.9 billion increase from the 2016 enacted level. And this is a 10 percent increase over 2016 levels and represents a significant investment in your agency.    The bulk of this increase will support Mission Innovation, an initiative launched by the administration in conjunction with the Paris Climate Agreement. Mission Innovation would double research and development in clean energy technology for 5 years. And the bulk of this significant initiative will be led by the Department of Energy. In order to meet the aggressive goals outlined in the Paris Climate Agreement, our country must be seriously dedicated to investment in clean energy technologies. And to that end, Mission Innovation will mark a significant investment in our economy, our environment, and public health.    I support this budget request because it provides the Department of Energy with the tools necessary to catapult our country to the forefront of 20th century clean energy innovation. These robust increases in funding for the agency are critical to achieving our long-term climate objectives. Mission Innovation also holds the promise of creating an economic opportunity for our country on the scale of the Apollo Program.    There are some requests in this budget that are of specific interest to my State and district. In particular, I strongly support the $110 billion in the request to support a new competition to establish 10 regional clean energy innovation partnerships around the country. Our country has many hubs of energy research and industry knowledge that can greatly contribute to furthering our clean energy future.    In New Jersey, we have leading academic research institutions, like the Rutgers Energy Institute and Princeton University. A number of renewable, or major renewable energy companies, are headquartered in our State. And we are home to the Princeton Plasma Physics Laboratory, a DOE facility, doing cutting-edge research on fusion energy. I know that New Jersey would be uniquely qualified to host one of these 10 regional partnerships.    I continue to support funding for the Northeast Gasoline Supply Reserve and, again, commend the Secretary for taking action to create this important stockpile of gasoline in the Northeast. As many know, when Hurricane Sandy struck in 2012, access to gasoline was severally limited in the aftermath of the storm, causing major problems in the region, impacting homeowners, businesses, and emergency personnel. And I am pleased that we learned this hard lesson and put in place a plan to make the region more resilient when another storm strikes.    All in all, the critical investments in clean energy included in the budget proposal will put our country on the right track to meet our carbon reduction goals and protect our environment and public health. It sets the stage for renewable energy innovations that will bolster America's clean energy economy. Mr. Secretary, I commend you for your leadership in this area, particularly during the negotiations that led to the landmark climate accord in December.    And I look forward to working with you on these exciting new initiatives, to take action on climate change, and expand our clean energy economy. Thank you again. I yield back.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Whitfield. The gentleman yields back. And that concludes the opening statements.    And so, Mr. Secretary, once again, we are delighted you are here. We look forward to your testimony and appreciate your providing answers to questions that we will be asking.    Sir, you are recognized for an opening statement.</t>
   </si>
   <si>
-    <t>Moniz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Moniz. Thank you, Chairmen Upton and Whitfield, Ranking Members Pallone and Rush, and members of the subcommittee. I really appreciate the opportunity to be back with you again to discuss the budget.</t>
   </si>
   <si>
@@ -103,9 +91,6 @@
     <t>412302</t>
   </si>
   <si>
-    <t>Pete Olson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Olson. I thank the Chair. A special welcome, Mr. Secretary, on the anniversary of Texas Independence Day.</t>
   </si>
   <si>
@@ -220,9 +205,6 @@
     <t>400373</t>
   </si>
   <si>
-    <t>John Shimkus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you, Mr. Chairman.    Welcome, Mr. Secretary. We are both getting old. We both have reading glasses now. It is good to have you.    On Monday, Chairman Upton and I requested that the Government Accountability Office assess DOE's plan to resume consideration of the Yucca Mountain license application, including assuring DOE maintains the necessary infrastructure, contractors, personnel to assure that the Yucca Mountain project can resume. Do I have your commitment that the Department will cooperate in good faith with the GAO as they conduct this review?</t>
   </si>
   <si>
@@ -325,9 +307,6 @@
     <t>412189</t>
   </si>
   <si>
-    <t>Jerry McNerney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McNerney. Thank you, Mr. Chairman.    Thank you for coming to see us, Mr. Secretary.    I share my colleague from Illinois' concern about the nuclear waste lack of progress and the urgency to move forward on that. Are you still required to recuse yourself from questions on fusion?</t>
   </si>
   <si>
@@ -373,9 +352,6 @@
     <t>412256</t>
   </si>
   <si>
-    <t>Robert E. Latta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Latta. Thank you, Mr. Chairman.    And, Mr. Secretary, good to have you back before us in the committee. Mr. Secretary, in order to develop the next generation of advanced nuclear technologies, private industry, the Department of Energy nuclear research activities, and the NRC have all aligned efforts to research, demonstrate, and license advanced nuclear technologies. I am drafting legislation to examine the nexus between DOE's nuclear research programs and the NRC's licensing capabilities, and earlier this week, my office sent over the discussion draft. And I look forward to your department reviewing it with technical comments. I would like to ask, how is DOE communicating with NRC to provide a pathway for your research activities to be carried through the NRC's licensing process?</t>
   </si>
   <si>
@@ -409,9 +385,6 @@
     <t>412209</t>
   </si>
   <si>
-    <t>David Loebsack</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Loebsack. Thank you, Mr. Chair.    Good to see you, Mr. Secretary, as always. Thanks for taking the time to come and testify today. I do want to add my thanks for your work on the Iran deal. I thought that was really wonderful on your part, all the effort you put in. I want to focus a little bit on renewable energy today. As you might imagine, I am from Iowa, got some thoughts about that. As you know, recent data from the U.S. Information Administration showed that Iowa now is the first and the only State in the Nation to generate more than 30 percent of its energy from wind power. Last year, we hit 31 percent. I am very proud of that. Something I bring up quite often in these fora. It is great news, not only for my home State but, of course, for the Nation's renewable energy sector. When we invest, I think we can all agree, when we invest in renewable energy, like solar and wind, we do lower our dependence on foreign oil, and we rein in CO&lt;INF&gt;2&lt;/INF&gt; emission. In fact, last week, your agency released a report stating that the wind production tax credit, which I am thankful we got extended for 5 years----</t>
   </si>
   <si>
@@ -445,9 +418,6 @@
     <t>412487</t>
   </si>
   <si>
-    <t>David B. McKinley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McKinley. Thank you, Mr. Chairman.    And, Secretary, just to get started on a series of questions, but the first one----</t>
   </si>
   <si>
@@ -514,9 +484,6 @@
     <t>412195</t>
   </si>
   <si>
-    <t>Kathy Castor</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Castor. Thank you, Mr. Chairman.    Welcome, Mr. Secretary. It is good to have you here.    Could you please provide the committee with an overview and your outlook on how we are doing on reducing carbon pollution? How are we doing here in the United States? What are our challenges and opportunities? And after the Paris agreement, give us a short sketch of the world community and whether or not you have seen countries begin to implement their commitments.</t>
   </si>
   <si>
@@ -544,9 +511,6 @@
     <t>412421</t>
   </si>
   <si>
-    <t>Adam Kinzinger</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kinzinger. Thank you, Mr. Chairman.    And, Mr. Secretary, thank you for your service to your country and for being here. I appreciate it.    I just want to kind of briefly talk about something, and then I want to get into LNG a little bit more. Included in the budget are plans to finalize DOE's multiyear program plan for grid modernization, which will create an integrated R&amp;D program that will help ensure the future grid will deliver reliable, affordable, secure, resilient, and clean electricity to consumers. What specific kind of projects will be undertaken in this program do you foresee?</t>
   </si>
   <si>
@@ -595,9 +559,6 @@
     <t>400062</t>
   </si>
   <si>
-    <t>Lois Capps</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Capps. Thank you, Mr. Chairman.    And thank you, Mr. Secretary, for your testimony and your presence here.    As you well know, climate change is real. The effects are real, and the time to act is now. Communities across the country and around the world are already facing the consequences. And it is going to take great leadership and political will to do what is necessary to act decisively to change this troubling trajectory.    This past December, almost all the world's countries came together to forge a path forward to respond to this fact. At the heart of this need is the requirement that we recognize the dangers associated with a business-as-usual approach to our energy landscape and embrace and implement the renewable energy technologies as quickly and broadly as possible. I was glad you spoke to this in your opening remarks.    This need is twofold. First, we need to rapidly expand on the implementation of existing green technologies, such as solar power, increased energy efficiency, but we also need to invest in developing new technologies that will help us transition to renewable energy sources. This is important, of course, for the environment, but also it really is a boost to our economy with the good-paying jobs that it can create.    But in order to lead in green tech innovation, we must actively support our researchers, scientists, startups, and investors. For example, the universities in my district have been integrally involved in research into developing green technologies. And you mentioned the Energy Frontier Research Centers designed by DOE in 2009. And UC Santa Barbara in my district was one of the first to apply and receive this boost. Since then, the center has made significant advances in key energy technologies, like photovoltaics and LEDs. Similarly, Cal Poly in San Luis Obispo has recently been awarded a DOE grant to conduct research into energy-generating offshore wave technology as part of the CalWave project.    So, Secretary Moniz, Mission Innovation, you have described it as a landmark commitment to dramatically accelerate public and private global clean energy innovation. Will you just give an example or two of how--I know you have already done so, but expand on that a bit--how this will help develop technologies required to move us toward a greener future? Specifically, I think how we can incentivize. To me, it is so much about our universities and research institutions.</t>
   </si>
   <si>
@@ -640,9 +601,6 @@
     <t>412485</t>
   </si>
   <si>
-    <t>H. Morgan Griffith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Griffith. Thank you very much.    Let me start, Mr. Secretary, in saying you were here a previous time and indicated, after hearing a number of us from coal country talk about the problems that we were having, that your team was willing to work with us. They sat down with us. They even come to my district. Very much appreciate it. And we have a symposium that we are working on to have some of your folks come in and talk to the people who are in the industry in the district to figure out where we go in the future. So I greatly appreciate that. I appreciate you have already commented on my favorite, chemical looping, and other technologies that are out there.    In regard to the R&amp;D, the Mission Innovation initiative that was launched by the administration in November to try to accomplish global clean energy innovation is working with a number of countries, China, South Korea, India, Indonesia, and Germany, who also recognize that coal is an important part of their electric generation into the future, and they share our northern hemisphere air with us. And I am just wondering what we can do because they are looking at coal long term. How do you intend to work within the initiative to develop cleaner coal technologies domestically so that then we can support international efforts to do the same? Be brief, because I got lots of questions.</t>
   </si>
   <si>
@@ -703,9 +661,6 @@
     <t>412212</t>
   </si>
   <si>
-    <t>John P. Sarbanes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sarbanes. Thank you, Mr. Chairman.    Mr. Secretary, I can't tell you how much confidence you give me in the Department of Energy's role in the environment portfolio, all of these innovations. And I think your positive impact in so many ways around the country is probably unrivaled in terms of someone serving in your capacity. So I want to thank you for that. I just get excited listening to all the things that you are working on and proposing, because I do think it puts----</t>
   </si>
   <si>
@@ -727,9 +682,6 @@
     <t>412460</t>
   </si>
   <si>
-    <t>Bill Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman.    And, Mr. Secretary, it is good to see you again. Before I get into my questions, I would like to engage in a topic that you and I have had a conversation about many times before. And I would be remiss if I didn't highlight my disappointment with your Department's recent decision to withdraw support for the American Centrifuge Project down in Piketon, Ohio. I think this is a very seriously flawed decision. I believe that by allowing the ACP to shutter operations, we are essentially seriously further hindering our ability to readily provide domestically enriched uranium for national security purposes.    And one of my biggest concerns is the contradictory nature of the decision in light of the very report that your Department produced upon which the decision was made, because one of the viable options in that report that was discounted was discounted because of the loss of the workforce from a previous facility. And I worry about how this loss of this uniquely skilled workforce is going to play out over time, and how that could be detrimental when DOE eventually decides, once again, that we need to build out our domestic uranium enrichment capability. That workforce is not going to sit there and wait. Those people have got to find jobs somewhere, and they are not going to be sitting idly by.    So I just wanted to reiterate one more time, Mr. Secretary, that I believe that is a very flawed decision. And I hope you will take that under consideration. And if there is any way to reverse it, you certainly have my support, and I believe many of my colleagues as well.</t>
   </si>
   <si>
@@ -775,9 +727,6 @@
     <t>400114</t>
   </si>
   <si>
-    <t>Michael F. Doyle</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Doyle. Thank you, Mr. Chairman.    And I want to thank my two colleagues for their courtesy in letting me speak today.    Secretary Moniz, thank you for being here. It is always a pleasure to have you here in front of our committee. And I want you to know how much I appreciated your visit last year to Pittsburgh. And you didn't get a chance to tour the NETL, so I want to invite you to come back as soon as possible so that you and I can visit the NETL in Pittsburgh and the incredible workforce that is down there.    Let me ask you a question. This is the first DOE budget to distinguish or delineate between the NETL's infrastructure program versus the research and operations program. Can you explain this distinction in a little greater detail and the reason why you have decided to structure the budget this way?</t>
   </si>
   <si>
@@ -829,9 +778,6 @@
     <t>412445</t>
   </si>
   <si>
-    <t>Billy Long</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Long. Thank you, Mr. Chairman.    And thank you, Secretary Moniz. It is always a pleasure to see you here and hear from you. You kind of brighten my day when you come in and talk to us, so thank you.    One of the----</t>
   </si>
   <si>
@@ -910,9 +856,6 @@
     <t>412211</t>
   </si>
   <si>
-    <t>John A. Yarmuth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Yarmuth. Thank you, Mr. Chairman.    Mr. Secretary, nice to see you here. Thank you for your responses and your presentation.    I want to congratulate the committee chair, my colleague from Kentucky, Mr. Whitfield, for holding this hearing and for allowing you to present the concepts and the priorities of the Department of Energy.    And I cannot resist taking the opportunity to say that, as a member of the Budget Committee, I was astonished that the chairman of the Budget Committee, for the first time in 40 years, did not allow the Director of the Office of Management and Budget to come to the Hill and present the administration's overall budget.    And I think the usefulness of a hearing like this, in which we really do get into the plans and priorities of the Department, is something that could benefit the American people and the Congress, as well, if we were able to discuss the President's overall budget. So I wish that Chairman Price of the Budget Committee would reconsider that and allow such a presentation. And I will tell him how much I appreciated this hearing.    One of the things that I think about a lot, Mr. Secretary, is that, at its optimum efficiency, Congress moves at 10 miles an hour, and we have a world that is moving at 100 miles an hour, and how are we able to make long-term policy that actually makes sense when things are changing so rapidly?    And I think about, for instance, driverless cars and the work that Government is going to have to do very quickly to figure out how to accommodate that. So I can't imagine a field that this is more appropriate to discuss within than the energy field. And I know so many things have been happening and are happening.    So I guess a broad question is, can you think of areas in which Congress really needs to start thinking about policy for things that are about to happen that we are totally unprepared for?</t>
   </si>
   <si>
@@ -928,9 +871,6 @@
     <t>412568</t>
   </si>
   <si>
-    <t>Markwayne Mullin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mullin. Thank you, Mr. Chairman.    And thank you for being here again. I know we have spoken on several different occasions.    And, you know, you come today asking for a significant increase at a time when we are still running deficits across the country. Can you just give me your number-one priority, what you would use the money for?</t>
   </si>
   <si>
@@ -1102,9 +1042,6 @@
     <t>412239</t>
   </si>
   <si>
-    <t>Peter Welch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Welch. Thank you very much.    You know, taking up on Mr. Mullin's questions, there is required to be a change in the model if we are going to change our energy mix, if we are going to move to distributed generation. And those are extraordinary challenges that our utilities face.    But that is an agenda that we have in Vermont. You know, we have utilities that are all in on trying to promote distributed generation, that are promoting solar, that are really strong on efficiency. And it is a complete departure from the old model that used to exist in the Vermont utilities of just promoting more usage of energy.    And my question--one, I want to cite that. And, two, I notice in your budget there is a lot of emphasis on trying to facilitate activities such as distributed generation, renewable battery storage, and so on, and just give you a quick minute to comment on that.</t>
   </si>
   <si>
@@ -1162,9 +1099,6 @@
     <t>412550</t>
   </si>
   <si>
-    <t>Richard Hudson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hudson. Thank you, Mr. Chairman.    And thank you, Mr. Secretary, for being here with us today.    The original Advanced Research Projects Agency within DOE has been in existence for a few years now. Part of the mission of the program is to, quote, ``accelerate transformational energy technologies from concept to market,'' end quote.    Has anything come to market yet since the program's inception 6 years ago? For example, has there been any wide-scale deployment of commercialized product that has resulted from the ARPA-E program?</t>
   </si>
   <si>
@@ -1220,9 +1154,6 @@
   </si>
   <si>
     <t>412319</t>
-  </si>
-  <si>
-    <t>Paul Tonko</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Mr. Chair.    And, Secretary Moniz, welcome. You have had quite a busy year since our last budget meeting. And to your credit, I want to thank and congratulate you on all you have done, ranging from the Iran nuclear outcome to Paris and the climate agreement and certainly embracing innovation. Your expertise and your leadership have been critical for our Nation, if not our planet's, future security and sustainability. So an awesome thanks.</t>
@@ -1771,11 +1702,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1797,11 +1726,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1821,13 +1748,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1849,11 +1774,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1873,13 +1796,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1901,11 +1822,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1927,11 +1846,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1953,11 +1870,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1979,11 +1894,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2005,11 +1918,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2029,13 +1940,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2057,11 +1966,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2081,13 +1988,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2109,11 +2014,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>23</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2133,13 +2036,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
         <v>29</v>
-      </c>
-      <c r="H16" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2161,11 +2062,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>23</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2185,13 +2084,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2213,11 +2110,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>23</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2237,13 +2132,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2265,11 +2158,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>23</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2289,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2317,11 +2206,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2341,13 +2228,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2369,11 +2254,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>23</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2393,13 +2276,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2421,11 +2302,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2447,11 +2326,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>23</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2473,11 +2350,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>23</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2499,11 +2374,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2523,13 +2396,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2551,11 +2422,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>23</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2575,13 +2444,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2603,11 +2470,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>23</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2627,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2655,11 +2518,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>23</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2679,13 +2540,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2707,11 +2566,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>23</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2731,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2759,11 +2614,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>23</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2783,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2809,13 +2660,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2837,11 +2686,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>23</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2861,13 +2708,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2889,11 +2734,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2913,13 +2756,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2941,11 +2782,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>23</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2965,13 +2804,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2993,11 +2830,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3017,13 +2852,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
-      </c>
-      <c r="G50" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3045,11 +2878,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>23</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3069,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
-      </c>
-      <c r="G52" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3097,11 +2926,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>23</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3121,13 +2948,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
+        <v>62</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
         <v>67</v>
-      </c>
-      <c r="G54" t="s">
-        <v>68</v>
-      </c>
-      <c r="H54" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3149,11 +2974,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>23</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3173,13 +2996,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
-      </c>
-      <c r="G56" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3201,11 +3022,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>23</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3225,13 +3044,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
-      </c>
-      <c r="G58" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3253,11 +3070,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>23</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3277,13 +3092,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>67</v>
-      </c>
-      <c r="G60" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3305,11 +3118,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>23</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3329,13 +3140,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>67</v>
-      </c>
-      <c r="G62" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3357,11 +3166,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>23</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3381,13 +3188,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>67</v>
-      </c>
-      <c r="G64" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3409,11 +3214,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>23</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3433,13 +3236,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>67</v>
-      </c>
-      <c r="G66" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3461,11 +3262,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>23</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3485,13 +3284,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>67</v>
-      </c>
-      <c r="G68" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3513,11 +3310,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>23</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3539,11 +3334,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3565,11 +3358,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>23</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3589,13 +3380,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>67</v>
-      </c>
-      <c r="G72" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3617,11 +3406,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>23</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3641,13 +3428,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>67</v>
-      </c>
-      <c r="G74" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3669,11 +3454,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>23</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3693,13 +3476,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>67</v>
-      </c>
-      <c r="G76" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3721,11 +3502,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3745,13 +3524,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>67</v>
-      </c>
-      <c r="G78" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3771,13 +3548,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>67</v>
-      </c>
-      <c r="G79" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3799,11 +3574,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3825,11 +3598,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>23</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3851,11 +3622,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3875,13 +3644,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>102</v>
-      </c>
-      <c r="G83" t="s">
-        <v>103</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3903,11 +3670,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>23</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3927,13 +3692,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>102</v>
-      </c>
-      <c r="G85" t="s">
-        <v>103</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3955,11 +3718,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>23</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3979,13 +3740,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>102</v>
-      </c>
-      <c r="G87" t="s">
-        <v>103</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4007,11 +3766,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>23</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4031,13 +3788,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>102</v>
-      </c>
-      <c r="G89" t="s">
+        <v>96</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
         <v>103</v>
-      </c>
-      <c r="H89" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4059,11 +3814,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>23</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4083,13 +3836,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>102</v>
-      </c>
-      <c r="G91" t="s">
-        <v>103</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4111,11 +3862,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>23</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4135,13 +3884,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>102</v>
-      </c>
-      <c r="G93" t="s">
-        <v>103</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4163,11 +3910,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>23</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4187,13 +3932,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>102</v>
-      </c>
-      <c r="G95" t="s">
-        <v>103</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4215,11 +3958,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4239,13 +3980,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>118</v>
-      </c>
-      <c r="G97" t="s">
-        <v>119</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4267,11 +4006,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>23</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4291,13 +4028,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>118</v>
-      </c>
-      <c r="G99" t="s">
-        <v>119</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4319,11 +4054,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>23</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4343,13 +4076,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>118</v>
-      </c>
-      <c r="G101" t="s">
-        <v>119</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4371,11 +4102,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>23</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4395,13 +4124,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
+        <v>111</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
         <v>118</v>
-      </c>
-      <c r="G103" t="s">
-        <v>119</v>
-      </c>
-      <c r="H103" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4423,11 +4150,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>23</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4447,13 +4172,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>118</v>
-      </c>
-      <c r="G105" t="s">
-        <v>119</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4475,11 +4198,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4499,13 +4220,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>130</v>
-      </c>
-      <c r="G107" t="s">
-        <v>131</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4527,11 +4246,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>23</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4551,13 +4268,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>130</v>
-      </c>
-      <c r="G109" t="s">
-        <v>131</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4579,11 +4294,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>23</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4603,13 +4316,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>130</v>
-      </c>
-      <c r="G111" t="s">
-        <v>131</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4631,11 +4342,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>23</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4655,13 +4364,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>130</v>
-      </c>
-      <c r="G113" t="s">
-        <v>131</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4683,11 +4390,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>23</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4707,13 +4412,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>130</v>
-      </c>
-      <c r="G115" t="s">
+        <v>122</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
         <v>131</v>
-      </c>
-      <c r="H115" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4735,11 +4438,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4759,13 +4460,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>142</v>
-      </c>
-      <c r="G117" t="s">
-        <v>143</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4787,11 +4486,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>23</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4811,13 +4508,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>142</v>
-      </c>
-      <c r="G119" t="s">
-        <v>143</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4839,11 +4534,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>23</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4863,13 +4556,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>142</v>
-      </c>
-      <c r="G121" t="s">
-        <v>143</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4891,11 +4582,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>23</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4915,13 +4604,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>142</v>
-      </c>
-      <c r="G123" t="s">
-        <v>143</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4943,11 +4630,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>23</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4967,13 +4652,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
+        <v>133</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
         <v>142</v>
-      </c>
-      <c r="G125" t="s">
-        <v>143</v>
-      </c>
-      <c r="H125" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4995,11 +4678,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>23</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5019,13 +4700,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>142</v>
-      </c>
-      <c r="G127" t="s">
-        <v>143</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5047,11 +4726,9 @@
       <c r="F128" t="s">
         <v>11</v>
       </c>
-      <c r="G128" t="s">
-        <v>23</v>
-      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5071,13 +4748,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>142</v>
-      </c>
-      <c r="G129" t="s">
-        <v>143</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5099,11 +4774,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>23</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5123,13 +4796,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>142</v>
-      </c>
-      <c r="G131" t="s">
-        <v>143</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5151,11 +4822,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>23</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5175,13 +4844,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>142</v>
-      </c>
-      <c r="G133" t="s">
-        <v>143</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5203,11 +4870,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>23</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5227,13 +4892,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>142</v>
-      </c>
-      <c r="G135" t="s">
-        <v>143</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5255,11 +4918,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>23</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5279,13 +4940,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>28</v>
-      </c>
-      <c r="G137" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5305,13 +4964,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>165</v>
-      </c>
-      <c r="G138" t="s">
-        <v>166</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5333,11 +4990,9 @@
       <c r="F139" t="s">
         <v>11</v>
       </c>
-      <c r="G139" t="s">
-        <v>23</v>
-      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5357,13 +5012,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>165</v>
-      </c>
-      <c r="G140" t="s">
-        <v>166</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5385,11 +5038,9 @@
       <c r="F141" t="s">
         <v>11</v>
       </c>
-      <c r="G141" t="s">
-        <v>23</v>
-      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5409,13 +5060,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>165</v>
-      </c>
-      <c r="G142" t="s">
-        <v>166</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5437,11 +5086,9 @@
       <c r="F143" t="s">
         <v>11</v>
       </c>
-      <c r="G143" t="s">
-        <v>23</v>
-      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5461,13 +5108,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>165</v>
-      </c>
-      <c r="G144" t="s">
-        <v>166</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5489,11 +5134,9 @@
       <c r="F145" t="s">
         <v>11</v>
       </c>
-      <c r="G145" t="s">
-        <v>12</v>
-      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5513,13 +5156,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>175</v>
-      </c>
-      <c r="G146" t="s">
-        <v>176</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5541,11 +5182,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>23</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5565,13 +5204,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>175</v>
-      </c>
-      <c r="G148" t="s">
-        <v>176</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5593,11 +5230,9 @@
       <c r="F149" t="s">
         <v>11</v>
       </c>
-      <c r="G149" t="s">
-        <v>23</v>
-      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5617,13 +5252,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>175</v>
-      </c>
-      <c r="G150" t="s">
-        <v>176</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5645,11 +5278,9 @@
       <c r="F151" t="s">
         <v>11</v>
       </c>
-      <c r="G151" t="s">
-        <v>23</v>
-      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5669,13 +5300,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>175</v>
-      </c>
-      <c r="G152" t="s">
-        <v>176</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5697,11 +5326,9 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" t="s">
-        <v>23</v>
-      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5721,13 +5348,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>175</v>
-      </c>
-      <c r="G154" t="s">
-        <v>176</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5749,11 +5374,9 @@
       <c r="F155" t="s">
         <v>11</v>
       </c>
-      <c r="G155" t="s">
-        <v>23</v>
-      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5773,13 +5396,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
+        <v>164</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
         <v>175</v>
-      </c>
-      <c r="G156" t="s">
-        <v>176</v>
-      </c>
-      <c r="H156" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5801,11 +5422,9 @@
       <c r="F157" t="s">
         <v>11</v>
       </c>
-      <c r="G157" t="s">
-        <v>23</v>
-      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5825,13 +5444,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>175</v>
-      </c>
-      <c r="G158" t="s">
-        <v>176</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5853,11 +5470,9 @@
       <c r="F159" t="s">
         <v>11</v>
       </c>
-      <c r="G159" t="s">
-        <v>23</v>
-      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5879,11 +5494,9 @@
       <c r="F160" t="s">
         <v>11</v>
       </c>
-      <c r="G160" t="s">
-        <v>12</v>
-      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5903,13 +5516,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>192</v>
-      </c>
-      <c r="G161" t="s">
-        <v>193</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5931,11 +5542,9 @@
       <c r="F162" t="s">
         <v>11</v>
       </c>
-      <c r="G162" t="s">
-        <v>23</v>
-      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5955,13 +5564,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>192</v>
-      </c>
-      <c r="G163" t="s">
-        <v>193</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5983,11 +5590,9 @@
       <c r="F164" t="s">
         <v>11</v>
       </c>
-      <c r="G164" t="s">
-        <v>23</v>
-      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6007,13 +5612,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>192</v>
-      </c>
-      <c r="G165" t="s">
-        <v>193</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6035,11 +5638,9 @@
       <c r="F166" t="s">
         <v>11</v>
       </c>
-      <c r="G166" t="s">
-        <v>23</v>
-      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6059,13 +5660,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>192</v>
-      </c>
-      <c r="G167" t="s">
-        <v>193</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6087,11 +5686,9 @@
       <c r="F168" t="s">
         <v>11</v>
       </c>
-      <c r="G168" t="s">
-        <v>12</v>
-      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6111,13 +5708,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>192</v>
-      </c>
-      <c r="G169" t="s">
-        <v>193</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6139,11 +5734,9 @@
       <c r="F170" t="s">
         <v>11</v>
       </c>
-      <c r="G170" t="s">
-        <v>12</v>
-      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6165,11 +5758,9 @@
       <c r="F171" t="s">
         <v>11</v>
       </c>
-      <c r="G171" t="s">
-        <v>23</v>
-      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6189,13 +5780,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
+        <v>180</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
         <v>192</v>
-      </c>
-      <c r="G172" t="s">
-        <v>193</v>
-      </c>
-      <c r="H172" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6217,11 +5806,9 @@
       <c r="F173" t="s">
         <v>11</v>
       </c>
-      <c r="G173" t="s">
-        <v>12</v>
-      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6241,13 +5828,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>207</v>
-      </c>
-      <c r="G174" t="s">
-        <v>208</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6269,11 +5854,9 @@
       <c r="F175" t="s">
         <v>11</v>
       </c>
-      <c r="G175" t="s">
-        <v>23</v>
-      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6293,13 +5876,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>207</v>
-      </c>
-      <c r="G176" t="s">
-        <v>208</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6321,11 +5902,9 @@
       <c r="F177" t="s">
         <v>11</v>
       </c>
-      <c r="G177" t="s">
-        <v>23</v>
-      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6345,13 +5924,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>207</v>
-      </c>
-      <c r="G178" t="s">
-        <v>208</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6373,11 +5950,9 @@
       <c r="F179" t="s">
         <v>11</v>
       </c>
-      <c r="G179" t="s">
-        <v>23</v>
-      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6397,13 +5972,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>207</v>
-      </c>
-      <c r="G180" t="s">
-        <v>208</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6425,11 +5998,9 @@
       <c r="F181" t="s">
         <v>11</v>
       </c>
-      <c r="G181" t="s">
-        <v>23</v>
-      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6449,13 +6020,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>207</v>
-      </c>
-      <c r="G182" t="s">
-        <v>208</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6477,11 +6046,9 @@
       <c r="F183" t="s">
         <v>11</v>
       </c>
-      <c r="G183" t="s">
-        <v>23</v>
-      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6501,13 +6068,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>207</v>
-      </c>
-      <c r="G184" t="s">
-        <v>208</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6529,11 +6094,9 @@
       <c r="F185" t="s">
         <v>11</v>
       </c>
-      <c r="G185" t="s">
-        <v>23</v>
-      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6553,13 +6116,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
+        <v>194</v>
+      </c>
+      <c r="G186" t="s"/>
+      <c r="H186" t="s">
         <v>207</v>
-      </c>
-      <c r="G186" t="s">
-        <v>208</v>
-      </c>
-      <c r="H186" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6581,11 +6142,9 @@
       <c r="F187" t="s">
         <v>11</v>
       </c>
-      <c r="G187" t="s">
-        <v>23</v>
-      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6605,13 +6164,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>207</v>
-      </c>
-      <c r="G188" t="s">
-        <v>208</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6633,11 +6190,9 @@
       <c r="F189" t="s">
         <v>11</v>
       </c>
-      <c r="G189" t="s">
-        <v>23</v>
-      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6657,13 +6212,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>207</v>
-      </c>
-      <c r="G190" t="s">
-        <v>208</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6685,11 +6238,9 @@
       <c r="F191" t="s">
         <v>11</v>
       </c>
-      <c r="G191" t="s">
-        <v>23</v>
-      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6711,11 +6262,9 @@
       <c r="F192" t="s">
         <v>11</v>
       </c>
-      <c r="G192" t="s">
-        <v>12</v>
-      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6735,13 +6284,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>228</v>
-      </c>
-      <c r="G193" t="s">
-        <v>229</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6763,11 +6310,9 @@
       <c r="F194" t="s">
         <v>11</v>
       </c>
-      <c r="G194" t="s">
-        <v>23</v>
-      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6787,13 +6332,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>228</v>
-      </c>
-      <c r="G195" t="s">
-        <v>229</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6815,11 +6358,9 @@
       <c r="F196" t="s">
         <v>11</v>
       </c>
-      <c r="G196" t="s">
-        <v>23</v>
-      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6839,13 +6380,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>228</v>
-      </c>
-      <c r="G197" t="s">
-        <v>229</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6867,11 +6406,9 @@
       <c r="F198" t="s">
         <v>11</v>
       </c>
-      <c r="G198" t="s">
-        <v>12</v>
-      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6891,13 +6428,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>236</v>
-      </c>
-      <c r="G199" t="s">
-        <v>237</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6919,11 +6454,9 @@
       <c r="F200" t="s">
         <v>11</v>
       </c>
-      <c r="G200" t="s">
-        <v>23</v>
-      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6943,13 +6476,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>236</v>
-      </c>
-      <c r="G201" t="s">
-        <v>237</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6971,11 +6502,9 @@
       <c r="F202" t="s">
         <v>11</v>
       </c>
-      <c r="G202" t="s">
-        <v>23</v>
-      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6995,13 +6524,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>236</v>
-      </c>
-      <c r="G203" t="s">
-        <v>237</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7023,11 +6550,9 @@
       <c r="F204" t="s">
         <v>11</v>
       </c>
-      <c r="G204" t="s">
-        <v>23</v>
-      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7047,13 +6572,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>236</v>
-      </c>
-      <c r="G205" t="s">
-        <v>237</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7075,11 +6598,9 @@
       <c r="F206" t="s">
         <v>11</v>
       </c>
-      <c r="G206" t="s">
-        <v>23</v>
-      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7099,13 +6620,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>236</v>
-      </c>
-      <c r="G207" t="s">
-        <v>237</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7127,11 +6646,9 @@
       <c r="F208" t="s">
         <v>11</v>
       </c>
-      <c r="G208" t="s">
-        <v>23</v>
-      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7151,13 +6668,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>236</v>
-      </c>
-      <c r="G209" t="s">
-        <v>237</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7179,11 +6694,9 @@
       <c r="F210" t="s">
         <v>11</v>
       </c>
-      <c r="G210" t="s">
-        <v>23</v>
-      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7203,13 +6716,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>236</v>
-      </c>
-      <c r="G211" t="s">
-        <v>237</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7231,11 +6742,9 @@
       <c r="F212" t="s">
         <v>11</v>
       </c>
-      <c r="G212" t="s">
-        <v>12</v>
-      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7255,13 +6764,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>252</v>
-      </c>
-      <c r="G213" t="s">
-        <v>253</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7283,11 +6790,9 @@
       <c r="F214" t="s">
         <v>11</v>
       </c>
-      <c r="G214" t="s">
-        <v>23</v>
-      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7307,13 +6812,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>252</v>
-      </c>
-      <c r="G215" t="s">
-        <v>253</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7335,11 +6838,9 @@
       <c r="F216" t="s">
         <v>11</v>
       </c>
-      <c r="G216" t="s">
-        <v>23</v>
-      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7359,13 +6860,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>252</v>
-      </c>
-      <c r="G217" t="s">
-        <v>253</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7387,11 +6886,9 @@
       <c r="F218" t="s">
         <v>11</v>
       </c>
-      <c r="G218" t="s">
-        <v>23</v>
-      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7411,13 +6908,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>252</v>
-      </c>
-      <c r="G219" t="s">
-        <v>253</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7439,11 +6934,9 @@
       <c r="F220" t="s">
         <v>11</v>
       </c>
-      <c r="G220" t="s">
-        <v>23</v>
-      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7463,13 +6956,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>252</v>
-      </c>
-      <c r="G221" t="s">
-        <v>253</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7491,11 +6982,9 @@
       <c r="F222" t="s">
         <v>11</v>
       </c>
-      <c r="G222" t="s">
-        <v>23</v>
-      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7515,13 +7004,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>252</v>
-      </c>
-      <c r="G223" t="s">
-        <v>253</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7543,11 +7030,9 @@
       <c r="F224" t="s">
         <v>11</v>
       </c>
-      <c r="G224" t="s">
-        <v>23</v>
-      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7567,13 +7052,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>252</v>
-      </c>
-      <c r="G225" t="s">
-        <v>253</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7595,11 +7078,9 @@
       <c r="F226" t="s">
         <v>11</v>
       </c>
-      <c r="G226" t="s">
-        <v>23</v>
-      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7619,13 +7100,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>252</v>
-      </c>
-      <c r="G227" t="s">
-        <v>253</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7647,11 +7126,9 @@
       <c r="F228" t="s">
         <v>11</v>
       </c>
-      <c r="G228" t="s">
-        <v>12</v>
-      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7671,13 +7148,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>270</v>
-      </c>
-      <c r="G229" t="s">
-        <v>271</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7699,11 +7174,9 @@
       <c r="F230" t="s">
         <v>11</v>
       </c>
-      <c r="G230" t="s">
-        <v>23</v>
-      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7723,13 +7196,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>270</v>
-      </c>
-      <c r="G231" t="s">
-        <v>271</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7751,11 +7222,9 @@
       <c r="F232" t="s">
         <v>11</v>
       </c>
-      <c r="G232" t="s">
-        <v>23</v>
-      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7775,13 +7244,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>270</v>
-      </c>
-      <c r="G233" t="s">
-        <v>271</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7803,11 +7270,9 @@
       <c r="F234" t="s">
         <v>11</v>
       </c>
-      <c r="G234" t="s">
-        <v>23</v>
-      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7827,13 +7292,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>270</v>
-      </c>
-      <c r="G235" t="s">
-        <v>271</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7855,11 +7318,9 @@
       <c r="F236" t="s">
         <v>11</v>
       </c>
-      <c r="G236" t="s">
-        <v>23</v>
-      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7879,13 +7340,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>270</v>
-      </c>
-      <c r="G237" t="s">
-        <v>271</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7907,11 +7366,9 @@
       <c r="F238" t="s">
         <v>11</v>
       </c>
-      <c r="G238" t="s">
-        <v>23</v>
-      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7931,13 +7388,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>270</v>
-      </c>
-      <c r="G239" t="s">
-        <v>271</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7959,11 +7414,9 @@
       <c r="F240" t="s">
         <v>11</v>
       </c>
-      <c r="G240" t="s">
-        <v>23</v>
-      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7983,13 +7436,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>270</v>
-      </c>
-      <c r="G241" t="s">
-        <v>271</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8011,11 +7462,9 @@
       <c r="F242" t="s">
         <v>11</v>
       </c>
-      <c r="G242" t="s">
-        <v>23</v>
-      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8035,13 +7484,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>270</v>
-      </c>
-      <c r="G243" t="s">
-        <v>271</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8063,11 +7510,9 @@
       <c r="F244" t="s">
         <v>11</v>
       </c>
-      <c r="G244" t="s">
-        <v>23</v>
-      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8087,13 +7532,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
+        <v>253</v>
+      </c>
+      <c r="G245" t="s"/>
+      <c r="H245" t="s">
         <v>270</v>
-      </c>
-      <c r="G245" t="s">
-        <v>271</v>
-      </c>
-      <c r="H245" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8115,11 +7558,9 @@
       <c r="F246" t="s">
         <v>11</v>
       </c>
-      <c r="G246" t="s">
-        <v>23</v>
-      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8139,13 +7580,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>270</v>
-      </c>
-      <c r="G247" t="s">
-        <v>271</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8167,11 +7606,9 @@
       <c r="F248" t="s">
         <v>11</v>
       </c>
-      <c r="G248" t="s">
-        <v>23</v>
-      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8191,13 +7628,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>270</v>
-      </c>
-      <c r="G249" t="s">
-        <v>271</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8219,11 +7654,9 @@
       <c r="F250" t="s">
         <v>11</v>
       </c>
-      <c r="G250" t="s">
-        <v>23</v>
-      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8243,13 +7676,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>270</v>
-      </c>
-      <c r="G251" t="s">
-        <v>271</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8271,11 +7702,9 @@
       <c r="F252" t="s">
         <v>11</v>
       </c>
-      <c r="G252" t="s">
-        <v>23</v>
-      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8295,13 +7724,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>270</v>
-      </c>
-      <c r="G253" t="s">
-        <v>271</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8323,11 +7750,9 @@
       <c r="F254" t="s">
         <v>11</v>
       </c>
-      <c r="G254" t="s">
-        <v>12</v>
-      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8347,13 +7772,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>297</v>
-      </c>
-      <c r="G255" t="s">
-        <v>298</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8375,11 +7798,9 @@
       <c r="F256" t="s">
         <v>11</v>
       </c>
-      <c r="G256" t="s">
-        <v>23</v>
-      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8399,13 +7820,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>297</v>
-      </c>
-      <c r="G257" t="s">
-        <v>298</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8427,11 +7846,9 @@
       <c r="F258" t="s">
         <v>11</v>
       </c>
-      <c r="G258" t="s">
-        <v>12</v>
-      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8451,13 +7868,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>303</v>
-      </c>
-      <c r="G259" t="s">
-        <v>304</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8479,11 +7894,9 @@
       <c r="F260" t="s">
         <v>11</v>
       </c>
-      <c r="G260" t="s">
-        <v>23</v>
-      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8503,13 +7916,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>303</v>
-      </c>
-      <c r="G261" t="s">
-        <v>304</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8531,11 +7942,9 @@
       <c r="F262" t="s">
         <v>11</v>
       </c>
-      <c r="G262" t="s">
-        <v>23</v>
-      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8555,13 +7964,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>303</v>
-      </c>
-      <c r="G263" t="s">
-        <v>304</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8583,11 +7990,9 @@
       <c r="F264" t="s">
         <v>11</v>
       </c>
-      <c r="G264" t="s">
-        <v>23</v>
-      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8607,13 +8012,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>303</v>
-      </c>
-      <c r="G265" t="s">
-        <v>304</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8635,11 +8038,9 @@
       <c r="F266" t="s">
         <v>11</v>
       </c>
-      <c r="G266" t="s">
-        <v>23</v>
-      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8659,13 +8060,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>303</v>
-      </c>
-      <c r="G267" t="s">
-        <v>304</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8687,11 +8086,9 @@
       <c r="F268" t="s">
         <v>11</v>
       </c>
-      <c r="G268" t="s">
-        <v>23</v>
-      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8711,13 +8108,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>303</v>
-      </c>
-      <c r="G269" t="s">
-        <v>304</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8739,11 +8134,9 @@
       <c r="F270" t="s">
         <v>11</v>
       </c>
-      <c r="G270" t="s">
-        <v>23</v>
-      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8763,13 +8156,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>303</v>
-      </c>
-      <c r="G271" t="s">
-        <v>304</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8791,11 +8182,9 @@
       <c r="F272" t="s">
         <v>11</v>
       </c>
-      <c r="G272" t="s">
-        <v>23</v>
-      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8815,13 +8204,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>303</v>
-      </c>
-      <c r="G273" t="s">
-        <v>304</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8843,11 +8230,9 @@
       <c r="F274" t="s">
         <v>11</v>
       </c>
-      <c r="G274" t="s">
-        <v>23</v>
-      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8867,13 +8252,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>303</v>
-      </c>
-      <c r="G275" t="s">
-        <v>304</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8895,11 +8278,9 @@
       <c r="F276" t="s">
         <v>11</v>
       </c>
-      <c r="G276" t="s">
-        <v>23</v>
-      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8919,13 +8300,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
+        <v>284</v>
+      </c>
+      <c r="G277" t="s"/>
+      <c r="H277" t="s">
         <v>303</v>
-      </c>
-      <c r="G277" t="s">
-        <v>304</v>
-      </c>
-      <c r="H277" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8947,11 +8326,9 @@
       <c r="F278" t="s">
         <v>11</v>
       </c>
-      <c r="G278" t="s">
-        <v>23</v>
-      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8971,13 +8348,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>303</v>
-      </c>
-      <c r="G279" t="s">
-        <v>304</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8999,11 +8374,9 @@
       <c r="F280" t="s">
         <v>11</v>
       </c>
-      <c r="G280" t="s">
-        <v>23</v>
-      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9023,13 +8396,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>303</v>
-      </c>
-      <c r="G281" t="s">
-        <v>304</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9051,11 +8422,9 @@
       <c r="F282" t="s">
         <v>11</v>
       </c>
-      <c r="G282" t="s">
-        <v>23</v>
-      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9075,13 +8444,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>303</v>
-      </c>
-      <c r="G283" t="s">
-        <v>304</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9103,11 +8470,9 @@
       <c r="F284" t="s">
         <v>11</v>
       </c>
-      <c r="G284" t="s">
-        <v>23</v>
-      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9127,13 +8492,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>303</v>
-      </c>
-      <c r="G285" t="s">
-        <v>304</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9155,11 +8518,9 @@
       <c r="F286" t="s">
         <v>11</v>
       </c>
-      <c r="G286" t="s">
-        <v>23</v>
-      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9179,13 +8540,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>303</v>
-      </c>
-      <c r="G287" t="s">
-        <v>304</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9207,11 +8566,9 @@
       <c r="F288" t="s">
         <v>11</v>
       </c>
-      <c r="G288" t="s">
-        <v>23</v>
-      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9231,13 +8588,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>303</v>
-      </c>
-      <c r="G289" t="s">
-        <v>304</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9259,11 +8614,9 @@
       <c r="F290" t="s">
         <v>11</v>
       </c>
-      <c r="G290" t="s">
-        <v>23</v>
-      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9283,13 +8636,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>303</v>
-      </c>
-      <c r="G291" t="s">
-        <v>304</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9311,11 +8662,9 @@
       <c r="F292" t="s">
         <v>11</v>
       </c>
-      <c r="G292" t="s">
-        <v>23</v>
-      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9335,13 +8684,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>303</v>
-      </c>
-      <c r="G293" t="s">
-        <v>304</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9363,11 +8710,9 @@
       <c r="F294" t="s">
         <v>11</v>
       </c>
-      <c r="G294" t="s">
-        <v>23</v>
-      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9387,13 +8732,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>303</v>
-      </c>
-      <c r="G295" t="s">
-        <v>304</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9415,11 +8758,9 @@
       <c r="F296" t="s">
         <v>11</v>
       </c>
-      <c r="G296" t="s">
-        <v>23</v>
-      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9439,13 +8780,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>303</v>
-      </c>
-      <c r="G297" t="s">
-        <v>304</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9467,11 +8806,9 @@
       <c r="F298" t="s">
         <v>11</v>
       </c>
-      <c r="G298" t="s">
-        <v>23</v>
-      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9491,13 +8828,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>303</v>
-      </c>
-      <c r="G299" t="s">
-        <v>304</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9519,11 +8854,9 @@
       <c r="F300" t="s">
         <v>11</v>
       </c>
-      <c r="G300" t="s">
-        <v>23</v>
-      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9543,13 +8876,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>303</v>
-      </c>
-      <c r="G301" t="s">
-        <v>304</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9571,11 +8902,9 @@
       <c r="F302" t="s">
         <v>11</v>
       </c>
-      <c r="G302" t="s">
-        <v>23</v>
-      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9595,13 +8924,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>303</v>
-      </c>
-      <c r="G303" t="s">
-        <v>304</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9623,11 +8950,9 @@
       <c r="F304" t="s">
         <v>11</v>
       </c>
-      <c r="G304" t="s">
-        <v>23</v>
-      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9647,13 +8972,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>303</v>
-      </c>
-      <c r="G305" t="s">
-        <v>304</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9675,11 +8998,9 @@
       <c r="F306" t="s">
         <v>11</v>
       </c>
-      <c r="G306" t="s">
-        <v>23</v>
-      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9699,13 +9020,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>303</v>
-      </c>
-      <c r="G307" t="s">
-        <v>304</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9727,11 +9046,9 @@
       <c r="F308" t="s">
         <v>11</v>
       </c>
-      <c r="G308" t="s">
-        <v>23</v>
-      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9751,13 +9068,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>303</v>
-      </c>
-      <c r="G309" t="s">
-        <v>304</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9779,11 +9094,9 @@
       <c r="F310" t="s">
         <v>11</v>
       </c>
-      <c r="G310" t="s">
-        <v>23</v>
-      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9803,13 +9116,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>303</v>
-      </c>
-      <c r="G311" t="s">
-        <v>304</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9831,11 +9142,9 @@
       <c r="F312" t="s">
         <v>11</v>
       </c>
-      <c r="G312" t="s">
-        <v>23</v>
-      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9855,13 +9164,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>303</v>
-      </c>
-      <c r="G313" t="s">
-        <v>304</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9883,11 +9190,9 @@
       <c r="F314" t="s">
         <v>11</v>
       </c>
-      <c r="G314" t="s">
-        <v>23</v>
-      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9909,11 +9214,9 @@
       <c r="F315" t="s">
         <v>11</v>
       </c>
-      <c r="G315" t="s">
-        <v>12</v>
-      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9933,13 +9236,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>361</v>
-      </c>
-      <c r="G316" t="s">
-        <v>362</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9961,11 +9262,9 @@
       <c r="F317" t="s">
         <v>11</v>
       </c>
-      <c r="G317" t="s">
-        <v>23</v>
-      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9985,13 +9284,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>361</v>
-      </c>
-      <c r="G318" t="s">
-        <v>362</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10013,11 +9310,9 @@
       <c r="F319" t="s">
         <v>11</v>
       </c>
-      <c r="G319" t="s">
-        <v>23</v>
-      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10037,13 +9332,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>361</v>
-      </c>
-      <c r="G320" t="s">
-        <v>362</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10065,11 +9358,9 @@
       <c r="F321" t="s">
         <v>11</v>
       </c>
-      <c r="G321" t="s">
-        <v>23</v>
-      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10089,13 +9380,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>361</v>
-      </c>
-      <c r="G322" t="s">
-        <v>362</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10117,11 +9406,9 @@
       <c r="F323" t="s">
         <v>11</v>
       </c>
-      <c r="G323" t="s">
-        <v>23</v>
-      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10141,13 +9428,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>361</v>
-      </c>
-      <c r="G324" t="s">
-        <v>362</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10169,11 +9454,9 @@
       <c r="F325" t="s">
         <v>11</v>
       </c>
-      <c r="G325" t="s">
-        <v>23</v>
-      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10193,13 +9476,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>361</v>
-      </c>
-      <c r="G326" t="s">
-        <v>362</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10221,11 +9502,9 @@
       <c r="F327" t="s">
         <v>11</v>
       </c>
-      <c r="G327" t="s">
-        <v>23</v>
-      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10245,13 +9524,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>361</v>
-      </c>
-      <c r="G328" t="s">
-        <v>362</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10273,11 +9550,9 @@
       <c r="F329" t="s">
         <v>11</v>
       </c>
-      <c r="G329" t="s">
-        <v>23</v>
-      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10297,13 +9572,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>361</v>
-      </c>
-      <c r="G330" t="s">
-        <v>362</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10325,11 +9598,9 @@
       <c r="F331" t="s">
         <v>11</v>
       </c>
-      <c r="G331" t="s">
-        <v>23</v>
-      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10349,13 +9620,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>361</v>
-      </c>
-      <c r="G332" t="s">
-        <v>362</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10377,11 +9646,9 @@
       <c r="F333" t="s">
         <v>11</v>
       </c>
-      <c r="G333" t="s">
-        <v>23</v>
-      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10401,13 +9668,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>361</v>
-      </c>
-      <c r="G334" t="s">
-        <v>362</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10429,11 +9694,9 @@
       <c r="F335" t="s">
         <v>11</v>
       </c>
-      <c r="G335" t="s">
-        <v>12</v>
-      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10453,13 +9716,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>381</v>
-      </c>
-      <c r="G336" t="s">
-        <v>382</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10481,11 +9742,9 @@
       <c r="F337" t="s">
         <v>11</v>
       </c>
-      <c r="G337" t="s">
-        <v>23</v>
-      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10505,13 +9764,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>381</v>
-      </c>
-      <c r="G338" t="s">
-        <v>382</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10533,11 +9790,9 @@
       <c r="F339" t="s">
         <v>11</v>
       </c>
-      <c r="G339" t="s">
-        <v>23</v>
-      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10557,13 +9812,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>381</v>
-      </c>
-      <c r="G340" t="s">
-        <v>382</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10585,11 +9838,9 @@
       <c r="F341" t="s">
         <v>11</v>
       </c>
-      <c r="G341" t="s">
-        <v>23</v>
-      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10609,13 +9860,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>381</v>
-      </c>
-      <c r="G342" t="s">
-        <v>382</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10637,11 +9886,9 @@
       <c r="F343" t="s">
         <v>11</v>
       </c>
-      <c r="G343" t="s">
-        <v>23</v>
-      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10661,13 +9908,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>381</v>
-      </c>
-      <c r="G344" t="s">
-        <v>382</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10689,11 +9934,9 @@
       <c r="F345" t="s">
         <v>11</v>
       </c>
-      <c r="G345" t="s">
-        <v>23</v>
-      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10713,13 +9956,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>381</v>
-      </c>
-      <c r="G346" t="s">
-        <v>382</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10741,11 +9982,9 @@
       <c r="F347" t="s">
         <v>11</v>
       </c>
-      <c r="G347" t="s">
-        <v>23</v>
-      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10765,13 +10004,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>381</v>
-      </c>
-      <c r="G348" t="s">
-        <v>382</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10793,11 +10030,9 @@
       <c r="F349" t="s">
         <v>11</v>
       </c>
-      <c r="G349" t="s">
-        <v>23</v>
-      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10817,13 +10052,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>381</v>
-      </c>
-      <c r="G350" t="s">
-        <v>382</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10845,11 +10078,9 @@
       <c r="F351" t="s">
         <v>11</v>
       </c>
-      <c r="G351" t="s">
-        <v>23</v>
-      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10869,13 +10100,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>381</v>
-      </c>
-      <c r="G352" t="s">
-        <v>382</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10897,11 +10126,9 @@
       <c r="F353" t="s">
         <v>11</v>
       </c>
-      <c r="G353" t="s">
-        <v>12</v>
-      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10921,13 +10148,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>401</v>
-      </c>
-      <c r="G354" t="s">
-        <v>402</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10949,11 +10174,9 @@
       <c r="F355" t="s">
         <v>11</v>
       </c>
-      <c r="G355" t="s">
-        <v>23</v>
-      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10973,13 +10196,11 @@
         <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>401</v>
-      </c>
-      <c r="G356" t="s">
-        <v>402</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11001,11 +10222,9 @@
       <c r="F357" t="s">
         <v>11</v>
       </c>
-      <c r="G357" t="s">
-        <v>23</v>
-      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11025,13 +10244,11 @@
         <v>10</v>
       </c>
       <c r="F358" t="s">
-        <v>401</v>
-      </c>
-      <c r="G358" t="s">
-        <v>402</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11053,11 +10270,9 @@
       <c r="F359" t="s">
         <v>11</v>
       </c>
-      <c r="G359" t="s">
-        <v>23</v>
-      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11077,13 +10292,11 @@
         <v>10</v>
       </c>
       <c r="F360" t="s">
-        <v>401</v>
-      </c>
-      <c r="G360" t="s">
-        <v>402</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11105,11 +10318,9 @@
       <c r="F361" t="s">
         <v>11</v>
       </c>
-      <c r="G361" t="s">
-        <v>23</v>
-      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11129,13 +10340,11 @@
         <v>10</v>
       </c>
       <c r="F362" t="s">
-        <v>401</v>
-      </c>
-      <c r="G362" t="s">
-        <v>402</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11157,11 +10366,9 @@
       <c r="F363" t="s">
         <v>11</v>
       </c>
-      <c r="G363" t="s">
-        <v>12</v>
-      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11183,11 +10390,9 @@
       <c r="F364" t="s">
         <v>11</v>
       </c>
-      <c r="G364" t="s">
-        <v>23</v>
-      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11209,11 +10414,9 @@
       <c r="F365" t="s">
         <v>11</v>
       </c>
-      <c r="G365" t="s">
-        <v>12</v>
-      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11235,11 +10438,9 @@
       <c r="F366" t="s">
         <v>11</v>
       </c>
-      <c r="G366" t="s">
-        <v>23</v>
-      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11261,11 +10462,9 @@
       <c r="F367" t="s">
         <v>11</v>
       </c>
-      <c r="G367" t="s">
-        <v>12</v>
-      </c>
+      <c r="G367" t="s"/>
       <c r="H367" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11287,11 +10486,9 @@
       <c r="F368" t="s">
         <v>11</v>
       </c>
-      <c r="G368" t="s">
-        <v>23</v>
-      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11313,11 +10510,9 @@
       <c r="F369" t="s">
         <v>11</v>
       </c>
-      <c r="G369" t="s">
-        <v>12</v>
-      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11339,11 +10534,9 @@
       <c r="F370" t="s">
         <v>11</v>
       </c>
-      <c r="G370" t="s">
-        <v>23</v>
-      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11365,11 +10558,9 @@
       <c r="F371" t="s">
         <v>11</v>
       </c>
-      <c r="G371" t="s">
-        <v>12</v>
-      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11391,11 +10582,9 @@
       <c r="F372" t="s">
         <v>11</v>
       </c>
-      <c r="G372" t="s">
-        <v>23</v>
-      </c>
+      <c r="G372" t="s"/>
       <c r="H372" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11417,11 +10606,9 @@
       <c r="F373" t="s">
         <v>11</v>
       </c>
-      <c r="G373" t="s">
-        <v>12</v>
-      </c>
+      <c r="G373" t="s"/>
       <c r="H373" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11443,11 +10630,9 @@
       <c r="F374" t="s">
         <v>11</v>
       </c>
-      <c r="G374" t="s">
-        <v>23</v>
-      </c>
+      <c r="G374" t="s"/>
       <c r="H374" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11469,11 +10654,9 @@
       <c r="F375" t="s">
         <v>11</v>
       </c>
-      <c r="G375" t="s">
-        <v>12</v>
-      </c>
+      <c r="G375" t="s"/>
       <c r="H375" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11495,11 +10678,9 @@
       <c r="F376" t="s">
         <v>11</v>
       </c>
-      <c r="G376" t="s">
-        <v>23</v>
-      </c>
+      <c r="G376" t="s"/>
       <c r="H376" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11521,11 +10702,9 @@
       <c r="F377" t="s">
         <v>11</v>
       </c>
-      <c r="G377" t="s">
-        <v>12</v>
-      </c>
+      <c r="G377" t="s"/>
       <c r="H377" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11547,11 +10726,9 @@
       <c r="F378" t="s">
         <v>11</v>
       </c>
-      <c r="G378" t="s">
-        <v>23</v>
-      </c>
+      <c r="G378" t="s"/>
       <c r="H378" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11573,11 +10750,9 @@
       <c r="F379" t="s">
         <v>11</v>
       </c>
-      <c r="G379" t="s">
-        <v>12</v>
-      </c>
+      <c r="G379" t="s"/>
       <c r="H379" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11599,11 +10774,9 @@
       <c r="F380" t="s">
         <v>11</v>
       </c>
-      <c r="G380" t="s">
-        <v>23</v>
-      </c>
+      <c r="G380" t="s"/>
       <c r="H380" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11625,11 +10798,9 @@
       <c r="F381" t="s">
         <v>11</v>
       </c>
-      <c r="G381" t="s">
-        <v>12</v>
-      </c>
+      <c r="G381" t="s"/>
       <c r="H381" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11651,11 +10822,9 @@
       <c r="F382" t="s">
         <v>11</v>
       </c>
-      <c r="G382" t="s">
-        <v>23</v>
-      </c>
+      <c r="G382" t="s"/>
       <c r="H382" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11677,11 +10846,9 @@
       <c r="F383" t="s">
         <v>11</v>
       </c>
-      <c r="G383" t="s">
-        <v>12</v>
-      </c>
+      <c r="G383" t="s"/>
       <c r="H383" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11703,11 +10870,9 @@
       <c r="F384" t="s">
         <v>11</v>
       </c>
-      <c r="G384" t="s">
-        <v>23</v>
-      </c>
+      <c r="G384" t="s"/>
       <c r="H384" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -11729,11 +10894,9 @@
       <c r="F385" t="s">
         <v>11</v>
       </c>
-      <c r="G385" t="s">
-        <v>12</v>
-      </c>
+      <c r="G385" t="s"/>
       <c r="H385" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11755,11 +10918,9 @@
       <c r="F386" t="s">
         <v>11</v>
       </c>
-      <c r="G386" t="s">
-        <v>23</v>
-      </c>
+      <c r="G386" t="s"/>
       <c r="H386" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11781,11 +10942,9 @@
       <c r="F387" t="s">
         <v>11</v>
       </c>
-      <c r="G387" t="s">
-        <v>12</v>
-      </c>
+      <c r="G387" t="s"/>
       <c r="H387" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11807,11 +10966,9 @@
       <c r="F388" t="s">
         <v>11</v>
       </c>
-      <c r="G388" t="s">
-        <v>23</v>
-      </c>
+      <c r="G388" t="s"/>
       <c r="H388" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11833,11 +10990,9 @@
       <c r="F389" t="s">
         <v>11</v>
       </c>
-      <c r="G389" t="s">
-        <v>12</v>
-      </c>
+      <c r="G389" t="s"/>
       <c r="H389" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11859,11 +11014,9 @@
       <c r="F390" t="s">
         <v>11</v>
       </c>
-      <c r="G390" t="s">
-        <v>23</v>
-      </c>
+      <c r="G390" t="s"/>
       <c r="H390" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11885,11 +11038,9 @@
       <c r="F391" t="s">
         <v>11</v>
       </c>
-      <c r="G391" t="s">
-        <v>12</v>
-      </c>
+      <c r="G391" t="s"/>
       <c r="H391" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -11911,11 +11062,9 @@
       <c r="F392" t="s">
         <v>11</v>
       </c>
-      <c r="G392" t="s">
-        <v>23</v>
-      </c>
+      <c r="G392" t="s"/>
       <c r="H392" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -11937,11 +11086,9 @@
       <c r="F393" t="s">
         <v>11</v>
       </c>
-      <c r="G393" t="s">
-        <v>12</v>
-      </c>
+      <c r="G393" t="s"/>
       <c r="H393" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -11963,11 +11110,9 @@
       <c r="F394" t="s">
         <v>11</v>
       </c>
-      <c r="G394" t="s">
-        <v>23</v>
-      </c>
+      <c r="G394" t="s"/>
       <c r="H394" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -11989,11 +11134,9 @@
       <c r="F395" t="s">
         <v>11</v>
       </c>
-      <c r="G395" t="s">
-        <v>12</v>
-      </c>
+      <c r="G395" t="s"/>
       <c r="H395" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12015,11 +11158,9 @@
       <c r="F396" t="s">
         <v>11</v>
       </c>
-      <c r="G396" t="s">
-        <v>23</v>
-      </c>
+      <c r="G396" t="s"/>
       <c r="H396" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12041,11 +11182,9 @@
       <c r="F397" t="s">
         <v>11</v>
       </c>
-      <c r="G397" t="s">
-        <v>12</v>
-      </c>
+      <c r="G397" t="s"/>
       <c r="H397" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12067,11 +11206,9 @@
       <c r="F398" t="s">
         <v>11</v>
       </c>
-      <c r="G398" t="s">
-        <v>23</v>
-      </c>
+      <c r="G398" t="s"/>
       <c r="H398" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12093,11 +11230,9 @@
       <c r="F399" t="s">
         <v>11</v>
       </c>
-      <c r="G399" t="s">
-        <v>12</v>
-      </c>
+      <c r="G399" t="s"/>
       <c r="H399" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12119,11 +11254,9 @@
       <c r="F400" t="s">
         <v>11</v>
       </c>
-      <c r="G400" t="s">
-        <v>23</v>
-      </c>
+      <c r="G400" t="s"/>
       <c r="H400" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12145,11 +11278,9 @@
       <c r="F401" t="s">
         <v>11</v>
       </c>
-      <c r="G401" t="s">
-        <v>12</v>
-      </c>
+      <c r="G401" t="s"/>
       <c r="H401" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12171,11 +11302,9 @@
       <c r="F402" t="s">
         <v>11</v>
       </c>
-      <c r="G402" t="s">
-        <v>23</v>
-      </c>
+      <c r="G402" t="s"/>
       <c r="H402" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12197,11 +11326,9 @@
       <c r="F403" t="s">
         <v>11</v>
       </c>
-      <c r="G403" t="s">
-        <v>12</v>
-      </c>
+      <c r="G403" t="s"/>
       <c r="H403" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12223,11 +11350,9 @@
       <c r="F404" t="s">
         <v>11</v>
       </c>
-      <c r="G404" t="s">
-        <v>23</v>
-      </c>
+      <c r="G404" t="s"/>
       <c r="H404" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12249,11 +11374,9 @@
       <c r="F405" t="s">
         <v>11</v>
       </c>
-      <c r="G405" t="s">
-        <v>12</v>
-      </c>
+      <c r="G405" t="s"/>
       <c r="H405" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12275,11 +11398,9 @@
       <c r="F406" t="s">
         <v>11</v>
       </c>
-      <c r="G406" t="s">
-        <v>23</v>
-      </c>
+      <c r="G406" t="s"/>
       <c r="H406" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12301,11 +11422,9 @@
       <c r="F407" t="s">
         <v>11</v>
       </c>
-      <c r="G407" t="s">
-        <v>12</v>
-      </c>
+      <c r="G407" t="s"/>
       <c r="H407" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12327,11 +11446,9 @@
       <c r="F408" t="s">
         <v>11</v>
       </c>
-      <c r="G408" t="s">
-        <v>12</v>
-      </c>
+      <c r="G408" t="s"/>
       <c r="H408" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
